--- a/data/trans_dic/P02E$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 24,97</t>
+          <t>11,33; 25,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 14,43</t>
+          <t>4,66; 14,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 15,48</t>
+          <t>3,68; 15,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 13,19</t>
+          <t>3,48; 13,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 11,21</t>
+          <t>2,49; 10,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 18,53</t>
+          <t>6,78; 18,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 16,93</t>
+          <t>8,44; 17,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,59</t>
+          <t>4,3; 10,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 15,16</t>
+          <t>6,94; 14,88</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 15,35</t>
+          <t>2,26; 15,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 11,41</t>
+          <t>2,49; 11,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 13,07</t>
+          <t>3,3; 13,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 11,1</t>
+          <t>2,77; 9,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,63</t>
+          <t>2,48; 8,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 19,69</t>
+          <t>8,77; 19,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,89</t>
+          <t>3,54; 10,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,09</t>
+          <t>3,25; 8,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 15,36</t>
+          <t>7,26; 15,29</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,7</t>
+          <t>2,2; 10,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,38</t>
+          <t>2,86; 9,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,98</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 21,58</t>
+          <t>4,82; 20,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 16,38</t>
+          <t>4,0; 16,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,55</t>
+          <t>0,0; 10,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 11,83</t>
+          <t>4,2; 11,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,05</t>
+          <t>4,19; 9,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,06</t>
+          <t>0,47; 4,03</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,43</t>
+          <t>3,8; 10,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,42</t>
+          <t>2,66; 7,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,24</t>
+          <t>2,61; 7,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,52</t>
+          <t>4,42; 11,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,23</t>
+          <t>3,01; 7,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,36</t>
+          <t>8,11; 15,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,86</t>
+          <t>5,18; 9,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,5</t>
+          <t>3,32; 6,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,05</t>
+          <t>6,29; 11,02</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 13,38</t>
+          <t>1,56; 13,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,98</t>
+          <t>0,77; 6,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,89</t>
+          <t>3,14; 11,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,49</t>
+          <t>3,14; 9,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,16</t>
+          <t>4,52; 10,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,15</t>
+          <t>4,56; 11,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,56</t>
+          <t>3,21; 9,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,93</t>
+          <t>3,98; 8,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,15</t>
+          <t>4,74; 10,4</t>
         </is>
       </c>
     </row>
@@ -1245,37 +1246,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,59</t>
+          <t>0,0; 25,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,63</t>
+          <t>1,7; 6,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,48</t>
+          <t>1,36; 5,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,6</t>
+          <t>2,62; 9,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,4</t>
+          <t>1,59; 6,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,3</t>
+          <t>1,36; 5,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,97</t>
+          <t>2,62; 8,7</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,62</t>
+          <t>6,22; 10,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,88</t>
+          <t>3,82; 6,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,91</t>
+          <t>3,74; 6,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,83</t>
+          <t>4,7; 7,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,53</t>
+          <t>4,34; 6,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 11,22</t>
+          <t>7,59; 11,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,35</t>
+          <t>5,7; 8,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,18</t>
+          <t>4,45; 6,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,06</t>
+          <t>6,39; 8,91</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es familiar, amigo/a, vecino/a, u otros</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19685</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12876</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8077</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7726</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8871</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17163</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27411</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21747</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25241</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12922; 28877</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7026; 22020</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3560; 14919</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3693; 14230</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4073; 17020</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9681; 26277</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18590; 37718</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13512; 32651</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16629; 35676</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6310</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8739</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7819</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8039</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9744</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21439</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14348</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18483</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29258</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1924; 13560</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3845; 17142</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3536; 14049</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3955; 13992</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4900; 17348</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13808; 30995</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8074; 23958</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11462; 29179</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19203; 40452</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6476</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10493</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7309</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9351</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1862</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13785</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19844</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2656; 12124</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5556; 18097</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4761</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3245; 13714</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4376; 17915</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5821</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7890; 22175</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12732; 29009</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>921; 7843</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15858</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15781</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12044</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18426</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19051</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35392</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34284</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34832</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47436</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8887; 24757</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9088; 26468</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6690; 20016</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11027; 28551</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12017; 29150</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25079; 47213</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>25042; 46627</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24599; 46976</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35579; 62297</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3385</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9181</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11048</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25252</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18727</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14118</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28637</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27908</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>971; 8298</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1045; 9092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4274; 15974</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5957; 18829</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16159; 35775</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11387; 28310</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8094; 22738</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19622; 41246</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18276; 40090</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8654</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8293</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10063</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8654</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8293</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11018</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1906</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1698</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5018</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4251; 16043</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3903; 15070</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5086; 17943</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4134; 16606</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3999; 15643</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5606; 18590</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>51400</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>51276</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>39095</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>61201</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>80562</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>104647</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>112601</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>131838</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>143742</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>38959; 65075</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>37619; 67032</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>28243; 52036</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>47208; 78035</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>65643; 98002</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>84044; 124391</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>93030; 136842</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>111067; 155018</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>119099; 166074</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P02E$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
